--- a/data/trans_camb/P14_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>10,82</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 13,39</t>
+          <t>3,49; 18,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,82</t>
+          <t>4,09; 16,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 11,69</t>
+          <t>6,1; 15,46</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>140,92%</t>
+          <t>205,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>161,16%</t>
+          <t>139,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>151,54%</t>
+          <t>165,2%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,21; 354,95</t>
+          <t>32,75; 544,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,08; 337,03</t>
+          <t>33,16; 331,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 263,63</t>
+          <t>66,92; 334,29</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>11,25</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 14,3</t>
+          <t>2,96; 17,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 14,96</t>
+          <t>6,3; 20,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 12,39</t>
+          <t>6,38; 16,08</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>164,32%</t>
+          <t>182,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>197,69%</t>
+          <t>226,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>181,23%</t>
+          <t>205,09%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 443,47</t>
+          <t>20,07; 603,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,65; 487,36</t>
+          <t>53,59; 631,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,1; 331,97</t>
+          <t>82,29; 444,93</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>9,38</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 20,49</t>
+          <t>-2,16; 29,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 21,0</t>
+          <t>-0,88; 23,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,45</t>
+          <t>0,84; 20,06</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>221,4%</t>
+          <t>330,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>779,23%</t>
+          <t>327,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>386,14%</t>
+          <t>329,64%</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,76; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 2092,7</t>
+          <t>-34,5; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>10,87</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,05</t>
+          <t>6,22; 15,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,28</t>
+          <t>6,48; 15,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,04</t>
+          <t>7,43; 14,07</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>155,64%</t>
+          <t>204,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>193,58%</t>
+          <t>180,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>174,91%</t>
+          <t>189,89%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,96; 303,64</t>
+          <t>89,43; 434,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>101,52; 322,18</t>
+          <t>77,62; 334,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>103,88; 265,01</t>
+          <t>106,91; 306,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,44</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,82</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.62423868188077</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.69021478296</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.1166968324478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 18,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 16,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 15,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.672763328619373</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.623723034710768</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6.65571702604537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>205,84%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>139,47%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>165,2%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.83718517188488</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.18112469619278</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.97592044741396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>32,75; 544,34</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>33,16; 331,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>66,92; 334,29</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2.061918715958418</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.532547035895328</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.746790120167011</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.3498456926119577</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.402189181778347</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.7473162714666124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 17,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 20,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 16,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>5.377803164637514</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>3.583619999406114</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.481967048213221</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>182,57%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>226,03%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>205,09%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.07602326534169</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.09812194449474</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.09906064996809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>20,07; 603,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>53,59; 631,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>82,29; 444,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.298247356600129</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.896053643919813</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.326981958041328</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.2718457420414</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.32912238632949</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.10868977863592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 29,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 23,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 20,06</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.088400736243794</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.118406352620197</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.099546677188675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>330,76%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>327,34%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>329,64%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.2671097005695859</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.5253050027806359</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.8421443795874743</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-34,5; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6.749059942818642</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>6.263472796612939</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.609324644444842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,199 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.065505481137903</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10.47720001404138</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>9.335853759515953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 15,38</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 15,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 14,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.695554238411173</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.6260300173514873</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1.17096211075917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>204,27%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>180,35%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>189,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>25.27448942366987</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>25.91552088844516</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>19.49463063542639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>89,43; 434,5</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>77,62; 334,08</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>106,91; 306,33</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>2.833051951957864</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>4.267179392850909</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>3.536191499938064</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-0.2882405245484855</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>10.59359755088481</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>11.22977724773986</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>10.92410463489152</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>6.210343901995972</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.469573456591121</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>7.609420707373676</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.54957382429715</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.30206450967919</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.15383590370072</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>2.113815492447708</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.866878819712633</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.96971141224667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.9171296250673078</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7856544355881676</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.125260744610353</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>4.565849801723164</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.416547105880733</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3.184281968430222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +975,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
